--- a/CUT/UT Test casing/UT test cases.xlsx
+++ b/CUT/UT Test casing/UT test cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHEPLAKS\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5154B93B-B585-49C6-92A0-1F261F948624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5656691E-B4F2-4CF4-B3EB-8AC83E1A9E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8BE7E2A5-C507-44F7-BF49-CD08419E307C}"/>
   </bookViews>
@@ -291,30 +291,6 @@
     <t>prompts do you want to save file(yes/no)then quit     pass</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
     <t>//read&lt;file.txt&gt;</t>
   </si>
   <si>
@@ -328,6 +304,30 @@
   </si>
   <si>
     <t>//append&lt;file.txt&gt;</t>
+  </si>
+  <si>
+    <t>[LE]/01</t>
+  </si>
+  <si>
+    <t>[LE]/02</t>
+  </si>
+  <si>
+    <t>[LE]/03</t>
+  </si>
+  <si>
+    <t>[LE]/04</t>
+  </si>
+  <si>
+    <t>[LE]/05</t>
+  </si>
+  <si>
+    <t>[LE]/06</t>
+  </si>
+  <si>
+    <t>[LE]/07</t>
+  </si>
+  <si>
+    <t>[LE]/08</t>
   </si>
 </sst>
 </file>
@@ -734,7 +734,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -746,7 +746,7 @@
         <v>12</v>
       </c>
       <c r="N2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="S2" t="s">
         <v>24</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -775,7 +775,7 @@
         <v>15</v>
       </c>
       <c r="N3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="S3" t="s">
         <v>24</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -833,7 +833,7 @@
         <v>18</v>
       </c>
       <c r="N6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="S6" t="s">
         <v>28</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -865,7 +865,7 @@
         <v>27</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="S7" t="s">
         <v>30</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -923,7 +923,7 @@
         <v>37</v>
       </c>
       <c r="N10" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="S10" t="s">
         <v>38</v>
@@ -940,7 +940,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
         <v>45</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
         <v>45</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
         <v>60</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
         <v>65</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
         <v>71</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -1408,9 +1408,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6D35455-CAD3-4629-A85F-F7A218790D88}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD76C57A-E023-4433-BE79-EBB0EC68B18C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD42F500-4CB3-4B74-83ED-000E1090EDE3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD7B466-2E93-440D-8301-4E47A22C72AB}"/>
 </file>